--- a/scenarios/bladder/processes/BladderRezidiv.xlsx
+++ b/scenarios/bladder/processes/BladderRezidiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110AB01-BBCD-4D2A-9AA5-BEFB35A71FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC6B952-5EEF-4747-8710-F9CC699B6D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Q</t>
   </si>
   <si>
-    <t>Es gibt Medikamente und Nahrungsergänzungsmittel, die du vorbeugend als Kuhr oder dauerhaft einnehmen kannst - auf der anderen Seite gibt es eine Menge nicht-medikamentöse Maßnahmen, die die Wahrscheinlichkeit einer Blasenenetzündung verringern.</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>JUMP(BladderMedsProphy)</t>
+  </si>
+  <si>
+    <t>Es gibt Medikamente und Nahrungsergänzungsmittel, die du vorbeugend als Kuhr oder dauerhaft einnehmen kannst - auf der anderen Seite gibt es eine Menge nicht-medikamentöser Maßnahmen, die die Wahrscheinlichkeit einer Blasenenetzündung verringern.</t>
   </si>
 </sst>
 </file>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="134" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -970,989 +970,989 @@
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B39" s="7"/>
       <c r="C39" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C40" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B42" s="7"/>
       <c r="C42" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
       <c r="C43" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C46" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B48" s="7"/>
       <c r="C48" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C51" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="C52" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="204" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B54" s="7"/>
       <c r="C54" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B55" s="7"/>
       <c r="C55" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C57" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C58" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
       <c r="C60" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B61" s="7"/>
       <c r="C61" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C63" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C64" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B66" s="7"/>
       <c r="C66" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B67" s="7"/>
       <c r="C67" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C69" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C70" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B72" s="7"/>
       <c r="C72" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C74" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.4">

--- a/scenarios/bladder/processes/BladderRezidiv.xlsx
+++ b/scenarios/bladder/processes/BladderRezidiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC6B952-5EEF-4747-8710-F9CC699B6D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A5D925-D8A9-4443-8DFD-20457A803286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Ich suche Medikamente/Nahrungsergänzungsmittel zur Vorbeugung</t>
   </si>
   <si>
     <t>Was kann ich ohne Medikamente dagegen tun?</t>
@@ -915,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="134" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -970,11 +967,11 @@
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>12</v>
@@ -983,59 +980,59 @@
         <v>13</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="7"/>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
@@ -1043,10 +1040,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1058,35 +1055,35 @@
         <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="7"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
@@ -1094,38 +1091,38 @@
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
@@ -1133,38 +1130,38 @@
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="7"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
@@ -1172,38 +1169,38 @@
         <v>12</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
@@ -1211,38 +1208,38 @@
         <v>12</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
@@ -1250,38 +1247,38 @@
         <v>12</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B27" s="7"/>
@@ -1289,116 +1286,116 @@
         <v>12</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B28" s="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C28" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>56</v>
+      <c r="D33" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="7"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C34" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="7"/>
       <c r="C35" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B36" s="7"/>
@@ -1406,76 +1403,76 @@
         <v>12</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="10" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="9" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C40" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="7"/>
       <c r="C41" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B42" s="7"/>
@@ -1483,227 +1480,227 @@
         <v>12</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="7"/>
-      <c r="C43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C46" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="7"/>
       <c r="C47" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E47" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B48" s="7"/>
       <c r="C48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="10" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B49" s="7"/>
-      <c r="C49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="2" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="204" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B52" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C52" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="204" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B53" s="7"/>
       <c r="C53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B54" s="7"/>
       <c r="C54" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="7"/>
-      <c r="C55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>89</v>
+      <c r="D57" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C58" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
@@ -1711,75 +1708,75 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B61" s="7"/>
-      <c r="C61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C63" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C64" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B65" s="7"/>
       <c r="C65" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B66" s="7"/>
@@ -1787,151 +1784,150 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B67" s="7"/>
-      <c r="C67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C69" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C70" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B71" s="7"/>
       <c r="C71" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B72" s="7"/>
+      <c r="E71" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C72" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C74" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>11</v>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C75" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C78" s="1" t="s">
@@ -1941,19 +1937,12 @@
         <v>123</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>125</v>
-      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E83" s="2"/>
@@ -1966,10 +1955,6 @@
     <row r="85" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
